--- a/docs/вычислительные эксперименты.xlsx
+++ b/docs/вычислительные эксперименты.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\admin\Documents\discords_discovery\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5875F55A-E153-4B61-81A3-A1358D48FD0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1F5F7-2904-4F6A-AD56-B9554BAEB265}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7995" xr2:uid="{45C03163-AE80-4B21-B1B4-A61EF55A8E8E}"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
+    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -25,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
   <si>
     <t>Количество нитей</t>
   </si>
@@ -236,16 +237,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -257,19 +258,19 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="5"/>
                 <c:pt idx="0">
-                  <c:v>0.630888</c:v>
+                  <c:v>0.30491299999999999</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.23409099999999999</c:v>
+                  <c:v>0.2412765</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.30137049999999999</c:v>
+                  <c:v>0.21633200000000002</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.30704200000000004</c:v>
+                  <c:v>0.3428465</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.36302899999999999</c:v>
+                  <c:v>0.60404749999999996</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -568,16 +569,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -592,16 +593,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2.6950544873574809</c:v>
+                  <c:v>1.2637492669199031</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>2.0933966662297738</c:v>
+                  <c:v>1.4094678549636668</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>2.0547286690420199</c:v>
+                  <c:v>0.88935719046278727</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.7378446350016115</c:v>
+                  <c:v>0.50478315033172061</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -905,16 +906,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>2</c:v>
+                  <c:v>3</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>8</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>16</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -929,16 +930,16 @@
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3475272436787404</c:v>
+                  <c:v>0.42124975563996769</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.52334916655744346</c:v>
+                  <c:v>0.23491130916061112</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.25684108363025249</c:v>
+                  <c:v>7.4113099205232277E-2</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.10861528968760072</c:v>
+                  <c:v>2.8043508351762256E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -947,6 +948,1015 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-BE0E-4019-B385-E422BC6F8585}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="666119184"/>
+        <c:axId val="666119512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="666119184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666119512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="666119512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666119184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость "время-количество нитей"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18168044619422571"/>
+          <c:y val="4.6641986915814629E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$9:$G$9</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.30491299999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.2412765</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.21633200000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.3428465</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.60404749999999996</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B0C3-410C-99EE-87710E077DB5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261502344"/>
+        <c:axId val="261502672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261502344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261502672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261502672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261502344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость "ускорение-количество нитей"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$10:$G$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.2637492669199031</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4094678549636668</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.88935719046278727</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.50478315033172061</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E3E7-459C-A154-3EFD063E8A32}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261557104"/>
+        <c:axId val="324620928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261557104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324620928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="324620928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261557104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> "эффективность-количество нитей</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>18</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$C$11:$G$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.42124975563996769</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23491130916061112</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>7.4113099205232277E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.8043508351762256E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B465-4DCF-B045-C2123FB1123A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1257,6 +2267,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -2290,6 +3420,1554 @@
 </file>
 
 <file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -2902,6 +5580,125 @@
           </a:extLst>
         </xdr:cNvPr>
         <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A23526D-022D-4D68-B534-CB7743425F76}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514142F3-147B-4149-BE42-90CFAE2E9208}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Диаграмма 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E5F81A-7ECA-4DCA-87AF-E51616246A77}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
         <a:off x="0" y="0"/>
@@ -3215,10 +6012,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820E519F-FAA0-49C3-93F6-DD03DB762C1A}">
-  <dimension ref="B3:G11"/>
+  <dimension ref="B3:H11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F34" sqref="F34"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3226,7 +6023,7 @@
     <col min="2" max="2" width="13.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>0</v>
@@ -3236,7 +6033,7 @@
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
     </row>
-    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
         <v>4</v>
       </c>
@@ -3244,124 +6041,143 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E4" s="2">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="F4" s="2">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="G4" s="2">
-        <v>16</v>
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>24</v>
       </c>
     </row>
-    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="2">
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0.30615100000000001</v>
+        <v>0.25486599999999998</v>
       </c>
       <c r="D5" s="2">
-        <v>0.26847599999999999</v>
+        <v>0.194665</v>
       </c>
       <c r="E5" s="2">
-        <v>0.17841899999999999</v>
+        <v>0.24160200000000001</v>
       </c>
       <c r="F5" s="2">
-        <v>0.25877800000000001</v>
+        <v>0.36257600000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>0.41499599999999998</v>
+        <v>0.78539700000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.77568499999999996</v>
       </c>
     </row>
-    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.72289899999999996</v>
+        <v>0.27200099999999999</v>
       </c>
       <c r="D6" s="2">
-        <v>0.19970599999999999</v>
+        <v>0.45183499999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.332179</v>
+        <v>0.26638800000000001</v>
       </c>
       <c r="F6" s="2">
-        <v>0.33150200000000002</v>
+        <v>0.34936699999999998</v>
       </c>
       <c r="G6" s="2">
-        <v>0.31820399999999999</v>
+        <v>0.298788</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.69952899999999996</v>
       </c>
     </row>
-    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B7" s="2">
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.98431999999999997</v>
+        <v>0.33782499999999999</v>
       </c>
       <c r="D7" s="2">
-        <v>0.18548500000000001</v>
+        <v>0.215365</v>
       </c>
       <c r="E7" s="2">
-        <v>0.51480199999999998</v>
+        <v>0.19106200000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>0.49763800000000002</v>
+        <v>0.33632600000000001</v>
       </c>
       <c r="G7" s="2">
-        <v>0.40785399999999999</v>
+        <v>0.66907799999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.46202199999999999</v>
       </c>
     </row>
-    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="2">
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>0.53887700000000005</v>
+        <v>0.44090600000000002</v>
       </c>
       <c r="D8" s="2">
-        <v>0.40944700000000001</v>
+        <v>0.26718799999999998</v>
       </c>
       <c r="E8" s="2">
-        <v>0.27056200000000002</v>
+        <v>0.189112</v>
       </c>
       <c r="F8" s="2">
-        <v>0.282582</v>
+        <v>0.28564800000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>0.273345</v>
+        <v>0.53901699999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.30650899999999998</v>
       </c>
     </row>
-    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="2" t="s">
         <v>3</v>
       </c>
       <c r="C9" s="3">
         <f>MEDIAN(C5:C8)</f>
-        <v>0.630888</v>
+        <v>0.30491299999999999</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:G9" si="0">MEDIAN(D5:D8)</f>
-        <v>0.23409099999999999</v>
+        <v>0.2412765</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>0.30137049999999999</v>
+        <v>0.21633200000000002</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.30704200000000004</v>
+        <v>0.3428465</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0.36302899999999999</v>
+        <v>0.60404749999999996</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" ref="H9" si="1">MEDIAN(H5:H8)</f>
+        <v>0.5807755</v>
       </c>
     </row>
-    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
@@ -3370,23 +6186,27 @@
         <v>1</v>
       </c>
       <c r="D10" s="4">
-        <f t="shared" ref="D10:G10" si="1">$C9/D9</f>
-        <v>2.6950544873574809</v>
+        <f t="shared" ref="D10:G10" si="2">$C9/D9</f>
+        <v>1.2637492669199031</v>
       </c>
       <c r="E10" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0933966662297738</v>
+        <f t="shared" si="2"/>
+        <v>1.4094678549636668</v>
       </c>
       <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>2.0547286690420199</v>
+        <f t="shared" si="2"/>
+        <v>0.88935719046278727</v>
       </c>
       <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.7378446350016115</v>
+        <f t="shared" si="2"/>
+        <v>0.50478315033172061</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" ref="H10" si="3">$C9/H9</f>
+        <v>0.52501009426189638</v>
       </c>
     </row>
-    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
@@ -3395,20 +6215,24 @@
         <v>1</v>
       </c>
       <c r="D11" s="2">
-        <f t="shared" ref="D11:G11" si="2">D10/D4</f>
-        <v>1.3475272436787404</v>
+        <f t="shared" ref="D11:G11" si="4">D10/D4</f>
+        <v>0.42124975563996769</v>
       </c>
       <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.52334916655744346</v>
+        <f t="shared" si="4"/>
+        <v>0.23491130916061112</v>
       </c>
       <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.25684108363025249</v>
+        <f t="shared" si="4"/>
+        <v>7.4113099205232277E-2</v>
       </c>
       <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.10861528968760072</v>
+        <f t="shared" si="4"/>
+        <v>2.8043508351762256E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" ref="H11" si="5">H10/H4</f>
+        <v>2.1875420594245683E-2</v>
       </c>
     </row>
   </sheetData>
@@ -3419,4 +6243,235 @@
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C2CD3-B565-4B90-AEB5-FD10A4BB0677}">
+  <dimension ref="B3:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:R34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B3" s="2"/>
+      <c r="C3" s="5" t="s">
+        <v>0</v>
+      </c>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+    </row>
+    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="2">
+        <v>1</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="2">
+        <v>6</v>
+      </c>
+      <c r="F4" s="2">
+        <v>12</v>
+      </c>
+      <c r="G4" s="2">
+        <v>18</v>
+      </c>
+      <c r="H4" s="2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>1</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.25486599999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.194665</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.24160200000000001</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.36257600000000001</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.78539700000000001</v>
+      </c>
+      <c r="H5" s="2">
+        <v>0.77568499999999996</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>2</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.27200099999999999</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.45183499999999999</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.26638800000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.34936699999999998</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.298788</v>
+      </c>
+      <c r="H6" s="2">
+        <v>0.69952899999999996</v>
+      </c>
+    </row>
+    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.33782499999999999</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.215365</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.19106200000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.33632600000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.66907799999999995</v>
+      </c>
+      <c r="H7" s="2">
+        <v>0.46202199999999999</v>
+      </c>
+    </row>
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2">
+        <v>0.44090600000000002</v>
+      </c>
+      <c r="D8" s="2">
+        <v>0.26718799999999998</v>
+      </c>
+      <c r="E8" s="2">
+        <v>0.189112</v>
+      </c>
+      <c r="F8" s="2">
+        <v>0.28564800000000001</v>
+      </c>
+      <c r="G8" s="2">
+        <v>0.53901699999999997</v>
+      </c>
+      <c r="H8" s="2">
+        <v>0.30650899999999998</v>
+      </c>
+    </row>
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C9" s="3">
+        <f>MEDIAN(C5:C8)</f>
+        <v>0.30491299999999999</v>
+      </c>
+      <c r="D9" s="3">
+        <f t="shared" ref="D9:H9" si="0">MEDIAN(D5:D8)</f>
+        <v>0.2412765</v>
+      </c>
+      <c r="E9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.21633200000000002</v>
+      </c>
+      <c r="F9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.3428465</v>
+      </c>
+      <c r="G9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.60404749999999996</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="0"/>
+        <v>0.5807755</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10" s="4">
+        <f>$C9/C9</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" ref="D10:H10" si="1">$C9/D9</f>
+        <v>1.2637492669199031</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="1"/>
+        <v>1.4094678549636668</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.88935719046278727</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.50478315033172061</v>
+      </c>
+      <c r="H10" s="4">
+        <f t="shared" si="1"/>
+        <v>0.52501009426189638</v>
+      </c>
+    </row>
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B11" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C11" s="2">
+        <f>C10/C4</f>
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f t="shared" ref="D11:H11" si="2">D10/D4</f>
+        <v>0.42124975563996769</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" si="2"/>
+        <v>0.23491130916061112</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" si="2"/>
+        <v>7.4113099205232277E-2</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" si="2"/>
+        <v>2.8043508351762256E-2</v>
+      </c>
+      <c r="H11" s="2">
+        <f t="shared" si="2"/>
+        <v>2.1875420594245683E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C3:G3"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/docs/вычислительные эксперименты.xlsx
+++ b/docs/вычислительные эксперименты.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\Users\admin\Documents\discords_discovery\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BBE1F5F7-2904-4F6A-AD56-B9554BAEB265}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D7003F-356B-4EC8-A0AE-89ADD703EF0A}" xr6:coauthVersionLast="33" xr6:coauthVersionMax="33" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7995" xr2:uid="{45C03163-AE80-4B21-B1B4-A61EF55A8E8E}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="17490" windowHeight="7995" activeTab="2" xr2:uid="{45C03163-AE80-4B21-B1B4-A61EF55A8E8E}"/>
   </bookViews>
   <sheets>
-    <sheet name="Лист1" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
+    <sheet name="core i5 (4 core, no HT)" sheetId="1" r:id="rId1"/>
+    <sheet name="Xeon E5-2603 (2 x 6 cores,noHT)" sheetId="2" r:id="rId2"/>
+    <sheet name="Xeon Phi KNL (68 cores, HT x4)" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="179017"/>
   <extLst>
@@ -26,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="7">
   <si>
     <t>Количество нитей</t>
   </si>
@@ -41,6 +42,12 @@
   </si>
   <si>
     <t>№ запуска</t>
+  </si>
+  <si>
+    <t>ожидалось</t>
+  </si>
+  <si>
+    <t>время</t>
   </si>
 </sst>
 </file>
@@ -60,7 +67,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -73,8 +80,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -97,21 +110,36 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -208,13 +236,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11637270341207349"/>
+          <c:y val="0.18452736318407961"/>
+          <c:w val="0.84596062992125987"/>
+          <c:h val="0.70005836956947542"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Данные</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -229,48 +270,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$9:$G$9</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30491299999999999</c:v>
+                  <c:v>0.44612850000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2412765</c:v>
+                  <c:v>0.23654350000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21633200000000002</c:v>
+                  <c:v>0.23288200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3428465</c:v>
+                  <c:v>0.17808350000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60404749999999996</c:v>
+                  <c:v>0.1887625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1470775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -279,6 +326,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-D34F-480A-B91B-79F0671C0DB8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ожидалось</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23654350000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11827175000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9135875000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9567937500000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4783968750000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-18CC-4320-8A5E-9A3F01CB2487}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -425,6 +545,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73686111111111108"/>
+          <c:y val="0.42621812198848269"/>
+          <c:w val="0.20480555555555555"/>
+          <c:h val="0.1679116229874251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -547,6 +708,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Данные</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -561,48 +725,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$10:$G$10</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2637492669199031</c:v>
+                  <c:v>1.8860315333120548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4094678549636668</c:v>
+                  <c:v>1.9156847673929287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88935719046278727</c:v>
+                  <c:v>2.5051647120592309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50478315033172061</c:v>
+                  <c:v>2.363438182901795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0332885723513114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -611,6 +781,79 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000000-63C3-4672-9B65-DC5798E34CFB}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ожидалось</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8860315333120548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7720630666241095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.544126133248219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.088252266496438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.176504532992876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E57B-4961-968D-10DBD8195743}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -757,6 +1000,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -898,48 +1172,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$11:$G$11</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42124975563996769</c:v>
+                  <c:v>0.94301576665602738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23491130916061112</c:v>
+                  <c:v>0.47892119184823218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4113099205232277E-2</c:v>
+                  <c:v>0.31314558900740386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8043508351762256E-2</c:v>
+                  <c:v>0.14771488643136219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4790267885978483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1217,13 +1497,26 @@
     </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
-      <c:layout/>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11637270341207349"/>
+          <c:y val="0.18452736318407961"/>
+          <c:w val="0.84596062992125987"/>
+          <c:h val="0.70005836956947542"/>
+        </c:manualLayout>
+      </c:layout>
       <c:scatterChart>
         <c:scatterStyle val="lineMarker"/>
         <c:varyColors val="0"/>
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Данные</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1238,48 +1531,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$9:$G$9</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$9:$H$9</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
-                  <c:v>0.30491299999999999</c:v>
+                  <c:v>0.44612850000000004</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.2412765</c:v>
+                  <c:v>0.23654350000000002</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.21633200000000002</c:v>
+                  <c:v>0.23288200000000001</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.3428465</c:v>
+                  <c:v>0.17808350000000001</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.60404749999999996</c:v>
+                  <c:v>0.1887625</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0.1470775</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1287,7 +1586,80 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B0C3-410C-99EE-87710E077DB5}"/>
+              <c16:uniqueId val="{00000000-AE5D-4689-A42B-5FCDEF20AA9F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ожидалось</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$13:$H$13</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.23654350000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11827175000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9135875000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9567937500000002E-2</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.4783968750000001E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-AE5D-4689-A42B-5FCDEF20AA9F}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1434,6 +1806,47 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73686111111111108"/>
+          <c:y val="0.42621812198848269"/>
+          <c:w val="0.20480555555555555"/>
+          <c:h val="0.1679116229874251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1556,6 +1969,9 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:v>Данные</c:v>
+          </c:tx>
           <c:spPr>
             <a:ln w="19050" cap="rnd">
               <a:solidFill>
@@ -1570,48 +1986,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$10:$G$10</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$10:$H$10</c:f>
               <c:numCache>
                 <c:formatCode>0.0000</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.2637492669199031</c:v>
+                  <c:v>1.8860315333120548</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.4094678549636668</c:v>
+                  <c:v>1.9156847673929287</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>0.88935719046278727</c:v>
+                  <c:v>2.5051647120592309</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0.50478315033172061</c:v>
+                  <c:v>2.363438182901795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0332885723513114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1619,7 +2041,80 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-E3E7-459C-A154-3EFD063E8A32}"/>
+              <c16:uniqueId val="{00000000-0E6F-4B2B-8CA6-2B3D22BCCED8}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ожидалось</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8860315333120548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7720630666241095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.544126133248219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.088252266496438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.176504532992876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-0E6F-4B2B-8CA6-2B3D22BCCED8}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -1766,6 +2261,37 @@
         <a:effectLst/>
       </c:spPr>
     </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
     <c:extLst>
@@ -1907,48 +2433,54 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Лист1!$C$4:$G$4</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>3</c:v>
+                  <c:v>2</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>6</c:v>
+                  <c:v>4</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>12</c:v>
+                  <c:v>8</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>18</c:v>
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Лист1!$C$11:$G$11</c:f>
+              <c:f>'core i5 (4 core, no HT)'!$C$11:$H$11</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
-                <c:ptCount val="5"/>
+                <c:ptCount val="6"/>
                 <c:pt idx="0">
                   <c:v>1</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>0.42124975563996769</c:v>
+                  <c:v>0.94301576665602738</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>0.23491130916061112</c:v>
+                  <c:v>0.47892119184823218</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>7.4113099205232277E-2</c:v>
+                  <c:v>0.31314558900740386</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>2.8043508351762256E-2</c:v>
+                  <c:v>0.14771488643136219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4790267885978483E-2</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1956,7 +2488,1256 @@
           <c:smooth val="0"/>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-B465-4DCF-B045-C2123FB1123A}"/>
+              <c16:uniqueId val="{00000000-4CE5-47AF-BA43-513F323A16A1}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="666119184"/>
+        <c:axId val="666119512"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="666119184"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666119512"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="666119512"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="666119184"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость "время-количество нитей"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18168044619422571"/>
+          <c:y val="4.6641986915814629E-2"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.11637270341207349"/>
+          <c:y val="0.18452736318407961"/>
+          <c:w val="0.84596062992125987"/>
+          <c:h val="0.70005836956947542"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Данные</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Xeon Phi KNL (68 cores, HT x4)'!$C$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Xeon Phi KNL (68 cores, HT x4)'!$C$8:$G$8</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>0.44612850000000004</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.23654350000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.23288200000000001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.17808350000000001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.1887625</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3419-493C-A046-F342AA2076E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ожидалось</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'Xeon Phi KNL (68 cores, HT x4)'!$D$3:$G$3</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>136</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>204</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>272</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'Xeon Phi KNL (68 cores, HT x4)'!$D$12:$G$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.23654350000000002</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.11827175000000001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>5.9135875000000004E-2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.9567937500000002E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3419-493C-A046-F342AA2076E6}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261502344"/>
+        <c:axId val="261502672"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261502344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261502672"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="261502672"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261502344"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.73686111111111108"/>
+          <c:y val="0.42621812198848269"/>
+          <c:w val="0.20480555555555555"/>
+          <c:h val="0.1679116229874251"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость "ускорение-количество нитей"</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>Данные</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$C$10:$H$10</c:f>
+              <c:numCache>
+                <c:formatCode>0.0000</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1.8860315333120548</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9156847673929287</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.5051647120592309</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.363438182901795</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3.0332885723513114</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-37E8-4C28-A95C-8D7E69616A26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>Ожидалось</c:v>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$D$12:$H$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="5"/>
+                <c:pt idx="0">
+                  <c:v>1.8860315333120548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.7720630666241095</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>7.544126133248219</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>15.088252266496438</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30.176504532992876</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-37E8-4C28-A95C-8D7E69616A26}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="261557104"/>
+        <c:axId val="324620928"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="261557104"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="324620928"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="324620928"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.0000" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="25000"/>
+                <a:lumOff val="75000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="261557104"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="ru-RU"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="ru-RU"/>
+              <a:t>Зависимость</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="ru-RU" baseline="0"/>
+              <a:t> "эффективность-количество нитей</a:t>
+            </a:r>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="ru-RU"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:scatterChart>
+        <c:scatterStyle val="lineMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:ln w="19050" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$C$4:$H$4</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>32</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>'core i5 (4 core, no HT)'!$C$11:$H$11</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.94301576665602738</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.47892119184823218</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.31314558900740386</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0.14771488643136219</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>9.4790267885978483E-2</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-BDF8-4DFD-92F8-DB3990061CC6}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2387,6 +4168,126 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors9.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
@@ -4968,6 +6869,1554 @@
 </file>
 
 <file path=xl/charts/style6.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style7.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style8.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style9.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="240">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -5602,21 +9051,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>1</xdr:row>
+      <xdr:row>0</xdr:row>
       <xdr:rowOff>33337</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>109537</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Диаграмма 1">
+        <xdr:cNvPr id="5" name="Диаграмма 4">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A23526D-022D-4D68-B534-CB7743425F76}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BB536B91-59AD-4BF9-9670-FF0D51FEC25E}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5640,21 +9089,21 @@
     <xdr:from>
       <xdr:col>8</xdr:col>
       <xdr:colOff>552450</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>16</xdr:col>
       <xdr:colOff>247650</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Диаграмма 2">
+        <xdr:cNvPr id="6" name="Диаграмма 5">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{514142F3-147B-4149-BE42-90CFAE2E9208}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C68EB9A-2F21-41BD-B5CC-3AB0DB5BD724}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -5678,13 +9127,132 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>14</xdr:row>
+      <xdr:row>13</xdr:row>
       <xdr:rowOff>176212</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>8</xdr:col>
       <xdr:colOff>19050</xdr:colOff>
-      <xdr:row>29</xdr:row>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Диаграмма 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BDAEBDA-2FB5-4DF5-9614-635671556089}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>109537</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{56F5841D-120E-47FE-84C4-61685665DECB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>552450</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>247650</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>61912</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7C0E93B7-B030-44F5-913C-D4016F017B22}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>28</xdr:row>
       <xdr:rowOff>61912</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -5692,7 +9260,7 @@
         <xdr:cNvPr id="4" name="Диаграмма 3">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{75E5F81A-7ECA-4DCA-87AF-E51616246A77}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5A31BCBD-A7C2-41B5-BAF9-FE43882E9599}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -6012,10 +9580,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{820E519F-FAA0-49C3-93F6-DD03DB762C1A}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B3:H13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:R33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6025,13 +9593,13 @@
   <sheetData>
     <row r="3" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -6041,19 +9609,19 @@
         <v>1</v>
       </c>
       <c r="D4" s="2">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="F4" s="2">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="G4" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="H4" s="2">
-        <v>24</v>
+        <v>32</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.25">
@@ -6061,22 +9629,22 @@
         <v>1</v>
       </c>
       <c r="C5" s="2">
-        <v>0.25486599999999998</v>
+        <v>0.44760299999999997</v>
       </c>
       <c r="D5" s="2">
-        <v>0.194665</v>
+        <v>0.24232000000000001</v>
       </c>
       <c r="E5" s="2">
-        <v>0.24160200000000001</v>
+        <v>0.227963</v>
       </c>
       <c r="F5" s="2">
-        <v>0.36257600000000001</v>
+        <v>0.20277000000000001</v>
       </c>
       <c r="G5" s="2">
-        <v>0.78539700000000001</v>
+        <v>0.203736</v>
       </c>
       <c r="H5" s="2">
-        <v>0.77568499999999996</v>
+        <v>0.139596</v>
       </c>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
@@ -6084,22 +9652,22 @@
         <v>2</v>
       </c>
       <c r="C6" s="2">
-        <v>0.27200099999999999</v>
+        <v>0.44383899999999998</v>
       </c>
       <c r="D6" s="2">
-        <v>0.45183499999999999</v>
+        <v>0.22351399999999999</v>
       </c>
       <c r="E6" s="2">
-        <v>0.26638800000000001</v>
+        <v>0.14533299999999999</v>
       </c>
       <c r="F6" s="2">
-        <v>0.34936699999999998</v>
+        <v>0.118543</v>
       </c>
       <c r="G6" s="2">
-        <v>0.298788</v>
+        <v>0.13070300000000001</v>
       </c>
       <c r="H6" s="2">
-        <v>0.69952899999999996</v>
+        <v>0.17876800000000001</v>
       </c>
     </row>
     <row r="7" spans="2:8" x14ac:dyDescent="0.25">
@@ -6107,22 +9675,22 @@
         <v>3</v>
       </c>
       <c r="C7" s="2">
-        <v>0.33782499999999999</v>
+        <v>0.44612800000000002</v>
       </c>
       <c r="D7" s="2">
-        <v>0.215365</v>
+        <v>0.230767</v>
       </c>
       <c r="E7" s="2">
-        <v>0.19106200000000001</v>
+        <v>0.24134800000000001</v>
       </c>
       <c r="F7" s="2">
-        <v>0.33632600000000001</v>
+        <v>0.174708</v>
       </c>
       <c r="G7" s="2">
-        <v>0.66907799999999995</v>
+        <v>0.21298</v>
       </c>
       <c r="H7" s="2">
-        <v>0.46202199999999999</v>
+        <v>0.13095499999999999</v>
       </c>
     </row>
     <row r="8" spans="2:8" x14ac:dyDescent="0.25">
@@ -6130,22 +9698,22 @@
         <v>4</v>
       </c>
       <c r="C8" s="2">
-        <v>0.44090600000000002</v>
+        <v>0.446129</v>
       </c>
       <c r="D8" s="2">
-        <v>0.26718799999999998</v>
+        <v>0.24366399999999999</v>
       </c>
       <c r="E8" s="2">
-        <v>0.189112</v>
+        <v>0.23780100000000001</v>
       </c>
       <c r="F8" s="2">
-        <v>0.28564800000000001</v>
+        <v>0.18145900000000001</v>
       </c>
       <c r="G8" s="2">
-        <v>0.53901699999999997</v>
+        <v>0.173789</v>
       </c>
       <c r="H8" s="2">
-        <v>0.30650899999999998</v>
+        <v>0.154559</v>
       </c>
     </row>
     <row r="9" spans="2:8" x14ac:dyDescent="0.25">
@@ -6154,85 +9722,138 @@
       </c>
       <c r="C9" s="3">
         <f>MEDIAN(C5:C8)</f>
-        <v>0.30491299999999999</v>
+        <v>0.44612850000000004</v>
       </c>
       <c r="D9" s="3">
         <f t="shared" ref="D9:G9" si="0">MEDIAN(D5:D8)</f>
-        <v>0.2412765</v>
+        <v>0.23654350000000002</v>
       </c>
       <c r="E9" s="3">
         <f t="shared" si="0"/>
-        <v>0.21633200000000002</v>
+        <v>0.23288200000000001</v>
       </c>
       <c r="F9" s="3">
         <f t="shared" si="0"/>
-        <v>0.3428465</v>
+        <v>0.17808350000000001</v>
       </c>
       <c r="G9" s="3">
         <f t="shared" si="0"/>
-        <v>0.60404749999999996</v>
+        <v>0.1887625</v>
       </c>
       <c r="H9" s="3">
         <f t="shared" ref="H9" si="1">MEDIAN(H5:H8)</f>
-        <v>0.5807755</v>
+        <v>0.1470775</v>
       </c>
     </row>
     <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="6">
         <f>$C9/C9</f>
         <v>1</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="6">
         <f t="shared" ref="D10:G10" si="2">$C9/D9</f>
-        <v>1.2637492669199031</v>
-      </c>
-      <c r="E10" s="4">
+        <v>1.8860315333120548</v>
+      </c>
+      <c r="E10" s="6">
         <f t="shared" si="2"/>
-        <v>1.4094678549636668</v>
-      </c>
-      <c r="F10" s="4">
+        <v>1.9156847673929287</v>
+      </c>
+      <c r="F10" s="6">
         <f t="shared" si="2"/>
-        <v>0.88935719046278727</v>
-      </c>
-      <c r="G10" s="4">
+        <v>2.5051647120592309</v>
+      </c>
+      <c r="G10" s="6">
         <f t="shared" si="2"/>
-        <v>0.50478315033172061</v>
-      </c>
-      <c r="H10" s="4">
+        <v>2.363438182901795</v>
+      </c>
+      <c r="H10" s="6">
         <f t="shared" ref="H10" si="3">$C9/H9</f>
-        <v>0.52501009426189638</v>
+        <v>3.0332885723513114</v>
       </c>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="C11" s="2">
+      <c r="C11" s="7">
         <f>C10/C4</f>
         <v>1</v>
       </c>
-      <c r="D11" s="2">
+      <c r="D11" s="7">
         <f t="shared" ref="D11:G11" si="4">D10/D4</f>
-        <v>0.42124975563996769</v>
-      </c>
-      <c r="E11" s="2">
+        <v>0.94301576665602738</v>
+      </c>
+      <c r="E11" s="7">
         <f t="shared" si="4"/>
-        <v>0.23491130916061112</v>
-      </c>
-      <c r="F11" s="2">
+        <v>0.47892119184823218</v>
+      </c>
+      <c r="F11" s="7">
         <f t="shared" si="4"/>
-        <v>7.4113099205232277E-2</v>
-      </c>
-      <c r="G11" s="2">
+        <v>0.31314558900740386</v>
+      </c>
+      <c r="G11" s="7">
         <f t="shared" si="4"/>
-        <v>2.8043508351762256E-2</v>
-      </c>
-      <c r="H11" s="2">
+        <v>0.14771488643136219</v>
+      </c>
+      <c r="H11" s="7">
         <f t="shared" ref="H11" si="5">H10/H4</f>
-        <v>2.1875420594245683E-2</v>
+        <v>9.4790267885978483E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D12" s="2">
+        <f>$D$11*D4</f>
+        <v>1.8860315333120548</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:H12" si="6">$D$11*E4</f>
+        <v>3.7720630666241095</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" si="6"/>
+        <v>7.544126133248219</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" si="6"/>
+        <v>15.088252266496438</v>
+      </c>
+      <c r="H12" s="2">
+        <f t="shared" si="6"/>
+        <v>30.176504532992876</v>
+      </c>
+    </row>
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="C13" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D13" s="2">
+        <f>$C9/D12</f>
+        <v>0.23654350000000002</v>
+      </c>
+      <c r="E13" s="2">
+        <f t="shared" ref="E13:H13" si="7">$C9/E12</f>
+        <v>0.11827175000000001</v>
+      </c>
+      <c r="F13" s="2">
+        <f t="shared" si="7"/>
+        <v>5.9135875000000004E-2</v>
+      </c>
+      <c r="G13" s="2">
+        <f t="shared" si="7"/>
+        <v>2.9567937500000002E-2</v>
+      </c>
+      <c r="H13" s="2">
+        <f t="shared" si="7"/>
+        <v>1.4783968750000001E-2</v>
       </c>
     </row>
   </sheetData>
@@ -6247,229 +9868,500 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1C2C2CD3-B565-4B90-AEB5-FD10A4BB0677}">
-  <dimension ref="B3:H11"/>
+  <dimension ref="B2:G12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:R34"/>
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="D3" s="5"/>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
     </row>
-    <row r="4" spans="2:8" ht="30" x14ac:dyDescent="0.25">
-      <c r="B4" s="1" t="s">
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
         <v>4</v>
       </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <v>3</v>
+      </c>
+      <c r="E3" s="2">
+        <v>6</v>
+      </c>
+      <c r="F3" s="2">
+        <v>9</v>
+      </c>
+      <c r="G3" s="2">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
       <c r="C4" s="2">
+        <v>0.44760299999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.24232000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.227963</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.20277000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.203736</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.44383899999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.22351399999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.14533299999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.118543</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.13070300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.44612800000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.230767</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.24134800000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.174708</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.21298</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.446129</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.24366399999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.23780100000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.18145900000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.173789</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <f>MEDIAN(C4:C7)</f>
+        <v>0.44612850000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:G8" si="0">MEDIAN(D4:D7)</f>
+        <v>0.23654350000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23288200000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17808350000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1887625</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="D4" s="2">
-        <v>3</v>
-      </c>
-      <c r="E4" s="2">
+      <c r="C9" s="6">
+        <f>$C8/C8</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:G9" si="1">$C8/D8</f>
+        <v>1.8860315333120548</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9156847673929287</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5051647120592309</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.363438182901795</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <f>C9/C3</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:G10" si="2">D9/D3</f>
+        <v>0.62867717777068488</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.31928079456548814</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.27835163467324786</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>0.1969531819084829</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">$D$11*D3</f>
+        <v>1.8860315333120548</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:G11" ca="1" si="3">$D$11*E3</f>
+        <v>3.7720630666241095</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.544126133248219</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.088252266496438</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="F4" s="2">
-        <v>12</v>
-      </c>
-      <c r="G4" s="2">
-        <v>18</v>
-      </c>
-      <c r="H4" s="2">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="2">
-        <v>1</v>
-      </c>
-      <c r="C5" s="2">
-        <v>0.25486599999999998</v>
-      </c>
-      <c r="D5" s="2">
-        <v>0.194665</v>
-      </c>
-      <c r="E5" s="2">
-        <v>0.24160200000000001</v>
-      </c>
-      <c r="F5" s="2">
-        <v>0.36257600000000001</v>
-      </c>
-      <c r="G5" s="2">
-        <v>0.78539700000000001</v>
-      </c>
-      <c r="H5" s="2">
-        <v>0.77568499999999996</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" s="2">
-        <v>2</v>
-      </c>
-      <c r="C6" s="2">
-        <v>0.27200099999999999</v>
-      </c>
-      <c r="D6" s="2">
-        <v>0.45183499999999999</v>
-      </c>
-      <c r="E6" s="2">
-        <v>0.26638800000000001</v>
-      </c>
-      <c r="F6" s="2">
-        <v>0.34936699999999998</v>
-      </c>
-      <c r="G6" s="2">
-        <v>0.298788</v>
-      </c>
-      <c r="H6" s="2">
-        <v>0.69952899999999996</v>
-      </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" s="2">
-        <v>3</v>
-      </c>
-      <c r="C7" s="2">
-        <v>0.33782499999999999</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0.215365</v>
-      </c>
-      <c r="E7" s="2">
-        <v>0.19106200000000001</v>
-      </c>
-      <c r="F7" s="2">
-        <v>0.33632600000000001</v>
-      </c>
-      <c r="G7" s="2">
-        <v>0.66907799999999995</v>
-      </c>
-      <c r="H7" s="2">
-        <v>0.46202199999999999</v>
-      </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" s="2">
-        <v>4</v>
-      </c>
-      <c r="C8" s="2">
-        <v>0.44090600000000002</v>
-      </c>
-      <c r="D8" s="2">
-        <v>0.26718799999999998</v>
-      </c>
-      <c r="E8" s="2">
-        <v>0.189112</v>
-      </c>
-      <c r="F8" s="2">
-        <v>0.28564800000000001</v>
-      </c>
-      <c r="G8" s="2">
-        <v>0.53901699999999997</v>
-      </c>
-      <c r="H8" s="2">
-        <v>0.30650899999999998</v>
-      </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="C9" s="3">
-        <f>MEDIAN(C5:C8)</f>
-        <v>0.30491299999999999</v>
-      </c>
-      <c r="D9" s="3">
-        <f t="shared" ref="D9:H9" si="0">MEDIAN(D5:D8)</f>
-        <v>0.2412765</v>
-      </c>
-      <c r="E9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.21633200000000002</v>
-      </c>
-      <c r="F9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.3428465</v>
-      </c>
-      <c r="G9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.60404749999999996</v>
-      </c>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>0.5807755</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B10" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C10" s="4">
-        <f>$C9/C9</f>
-        <v>1</v>
-      </c>
-      <c r="D10" s="4">
-        <f t="shared" ref="D10:H10" si="1">$C9/D9</f>
-        <v>1.2637492669199031</v>
-      </c>
-      <c r="E10" s="4">
-        <f t="shared" si="1"/>
-        <v>1.4094678549636668</v>
-      </c>
-      <c r="F10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.88935719046278727</v>
-      </c>
-      <c r="G10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.50478315033172061</v>
-      </c>
-      <c r="H10" s="4">
-        <f t="shared" si="1"/>
-        <v>0.52501009426189638</v>
-      </c>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="C11" s="2">
-        <f>C10/C4</f>
-        <v>1</v>
-      </c>
-      <c r="D11" s="2">
-        <f t="shared" ref="D11:H11" si="2">D10/D4</f>
-        <v>0.42124975563996769</v>
-      </c>
-      <c r="E11" s="2">
-        <f t="shared" si="2"/>
-        <v>0.23491130916061112</v>
-      </c>
-      <c r="F11" s="2">
-        <f t="shared" si="2"/>
-        <v>7.4113099205232277E-2</v>
-      </c>
-      <c r="G11" s="2">
-        <f t="shared" si="2"/>
-        <v>2.8043508351762256E-2</v>
-      </c>
-      <c r="H11" s="2">
-        <f t="shared" si="2"/>
-        <v>2.1875420594245683E-2</v>
+      <c r="D12" s="2">
+        <f ca="1">$C8/D11</f>
+        <v>0.23654350000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:G12" ca="1" si="4">$C8/E11</f>
+        <v>0.11827175000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9135875000000004E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9567937500000002E-2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C2:G2"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4B72EF74-93C4-4AA7-B9FE-1DCBB8B30414}">
+  <dimension ref="B2:G12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B2" s="2"/>
+      <c r="C2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="2:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C3" s="2">
+        <v>1</v>
+      </c>
+      <c r="D3" s="2">
+        <f>0.25*68*4</f>
+        <v>68</v>
+      </c>
+      <c r="E3" s="2">
+        <f>0.5*68*4</f>
+        <v>136</v>
+      </c>
+      <c r="F3" s="2">
+        <f>0.75*68*4</f>
+        <v>204</v>
+      </c>
+      <c r="G3" s="2">
+        <f>1*68*4</f>
+        <v>272</v>
+      </c>
+    </row>
+    <row r="4" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B4" s="2">
+        <v>1</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.44760299999999997</v>
+      </c>
+      <c r="D4" s="2">
+        <v>0.24232000000000001</v>
+      </c>
+      <c r="E4" s="2">
+        <v>0.227963</v>
+      </c>
+      <c r="F4" s="2">
+        <v>0.20277000000000001</v>
+      </c>
+      <c r="G4" s="2">
+        <v>0.203736</v>
+      </c>
+    </row>
+    <row r="5" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B5" s="2">
+        <v>2</v>
+      </c>
+      <c r="C5" s="2">
+        <v>0.44383899999999998</v>
+      </c>
+      <c r="D5" s="2">
+        <v>0.22351399999999999</v>
+      </c>
+      <c r="E5" s="2">
+        <v>0.14533299999999999</v>
+      </c>
+      <c r="F5" s="2">
+        <v>0.118543</v>
+      </c>
+      <c r="G5" s="2">
+        <v>0.13070300000000001</v>
+      </c>
+    </row>
+    <row r="6" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B6" s="2">
+        <v>3</v>
+      </c>
+      <c r="C6" s="2">
+        <v>0.44612800000000002</v>
+      </c>
+      <c r="D6" s="2">
+        <v>0.230767</v>
+      </c>
+      <c r="E6" s="2">
+        <v>0.24134800000000001</v>
+      </c>
+      <c r="F6" s="2">
+        <v>0.174708</v>
+      </c>
+      <c r="G6" s="2">
+        <v>0.21298</v>
+      </c>
+    </row>
+    <row r="7" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B7" s="2">
+        <v>4</v>
+      </c>
+      <c r="C7" s="2">
+        <v>0.446129</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0.24366399999999999</v>
+      </c>
+      <c r="E7" s="2">
+        <v>0.23780100000000001</v>
+      </c>
+      <c r="F7" s="2">
+        <v>0.18145900000000001</v>
+      </c>
+      <c r="G7" s="2">
+        <v>0.173789</v>
+      </c>
+    </row>
+    <row r="8" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B8" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C8" s="3">
+        <f>MEDIAN(C4:C7)</f>
+        <v>0.44612850000000004</v>
+      </c>
+      <c r="D8" s="3">
+        <f t="shared" ref="D8:H8" si="0">MEDIAN(D4:D7)</f>
+        <v>0.23654350000000002</v>
+      </c>
+      <c r="E8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.23288200000000001</v>
+      </c>
+      <c r="F8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.17808350000000001</v>
+      </c>
+      <c r="G8" s="3">
+        <f t="shared" si="0"/>
+        <v>0.1887625</v>
+      </c>
+    </row>
+    <row r="9" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B9" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9" s="6">
+        <f>$C8/C8</f>
+        <v>1</v>
+      </c>
+      <c r="D9" s="6">
+        <f t="shared" ref="D9:H9" si="1">$C8/D8</f>
+        <v>1.8860315333120548</v>
+      </c>
+      <c r="E9" s="6">
+        <f t="shared" si="1"/>
+        <v>1.9156847673929287</v>
+      </c>
+      <c r="F9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.5051647120592309</v>
+      </c>
+      <c r="G9" s="6">
+        <f t="shared" si="1"/>
+        <v>2.363438182901795</v>
+      </c>
+    </row>
+    <row r="10" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B10" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C10" s="7">
+        <f>C9/C3</f>
+        <v>1</v>
+      </c>
+      <c r="D10" s="7">
+        <f t="shared" ref="D10:H10" si="2">D9/D3</f>
+        <v>2.7735757842824334E-2</v>
+      </c>
+      <c r="E10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.4085917407300946E-2</v>
+      </c>
+      <c r="F10" s="7">
+        <f t="shared" si="2"/>
+        <v>1.2280219176760936E-2</v>
+      </c>
+      <c r="G10" s="7">
+        <f t="shared" si="2"/>
+        <v>8.6891109665507161E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="B11" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D11" s="2">
+        <f ca="1">$D$11*D3</f>
+        <v>1.8860315333120548</v>
+      </c>
+      <c r="E11" s="2">
+        <f t="shared" ref="E11:H11" ca="1" si="3">$D$11*E3</f>
+        <v>3.7720630666241095</v>
+      </c>
+      <c r="F11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>7.544126133248219</v>
+      </c>
+      <c r="G11" s="2">
+        <f t="shared" ca="1" si="3"/>
+        <v>15.088252266496438</v>
+      </c>
+    </row>
+    <row r="12" spans="2:7" x14ac:dyDescent="0.25">
+      <c r="C12" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D12" s="2">
+        <f ca="1">$C8/D11</f>
+        <v>0.23654350000000002</v>
+      </c>
+      <c r="E12" s="2">
+        <f t="shared" ref="E12:H12" ca="1" si="4">$C8/E11</f>
+        <v>0.11827175000000001</v>
+      </c>
+      <c r="F12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>5.9135875000000004E-2</v>
+      </c>
+      <c r="G12" s="2">
+        <f t="shared" ca="1" si="4"/>
+        <v>2.9567937500000002E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="C2:G2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
